--- a/Supervised Learning-Chatbot.xlsx
+++ b/Supervised Learning-Chatbot.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>CODE</t>
   </si>
@@ -274,6 +274,81 @@
   </si>
   <si>
     <t>What is Predictiving modelling ?</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>How specific output links to Supervised learning?</t>
+  </si>
+  <si>
+    <t>What is slope ?</t>
+  </si>
+  <si>
+    <t>What is intercept ?</t>
+  </si>
+  <si>
+    <t>What is semi supervised learning ?</t>
+  </si>
+  <si>
+    <t>What is Data split ?</t>
+  </si>
+  <si>
+    <t>What do you mean by the training of data ?</t>
+  </si>
+  <si>
+    <t>What do you mean by the testing of data ?</t>
+  </si>
+  <si>
+    <t>What is the Validation of model ?</t>
+  </si>
+  <si>
+    <t>What is Model evalution ?</t>
+  </si>
+  <si>
+    <t>What is Feature Selection ?</t>
+  </si>
+  <si>
+    <t>What is Feature scaling ?</t>
+  </si>
+  <si>
+    <t>What is Curse of Dimensionality ?</t>
+  </si>
+  <si>
+    <t>AASKK43</t>
+  </si>
+  <si>
+    <t>AASKK44</t>
+  </si>
+  <si>
+    <t>AASKK45</t>
+  </si>
+  <si>
+    <t>AASKK46</t>
+  </si>
+  <si>
+    <t>AASKK47</t>
+  </si>
+  <si>
+    <t>AASKK48</t>
+  </si>
+  <si>
+    <t>AASKK49</t>
+  </si>
+  <si>
+    <t>AASKK50</t>
+  </si>
+  <si>
+    <t>AASKK51</t>
+  </si>
+  <si>
+    <t>AASKK52</t>
+  </si>
+  <si>
+    <t>AASKK53</t>
+  </si>
+  <si>
+    <t>AASKK54</t>
   </si>
 </sst>
 </file>
@@ -617,364 +692,626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>85</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Supervised Learning-Chatbot.xlsx
+++ b/Supervised Learning-Chatbot.xlsx
@@ -147,174 +147,9 @@
     <t>AASKK42</t>
   </si>
   <si>
-    <t>QUESTIONS</t>
-  </si>
-  <si>
-    <t>What is Supervised learning?</t>
-  </si>
-  <si>
-    <t>What is regression ?</t>
-  </si>
-  <si>
-    <t>What is confusion matrix ?</t>
-  </si>
-  <si>
-    <t>What is Classification ?</t>
-  </si>
-  <si>
-    <t>What is Linear Regression ?</t>
-  </si>
-  <si>
-    <t>What is Logistic Regression ?</t>
-  </si>
-  <si>
-    <t>What is Naïve bayes algorithm ?</t>
-  </si>
-  <si>
-    <t>What is euclidean distance ?</t>
-  </si>
-  <si>
-    <t>What is Manhattan distance ?</t>
-  </si>
-  <si>
-    <t>What is KNN algorithm ?</t>
-  </si>
-  <si>
-    <t>What is Mean Squared Error or MSE ?</t>
-  </si>
-  <si>
-    <t>What is Accuracy ?</t>
-  </si>
-  <si>
-    <t>What is ROC or AUC curve ?</t>
-  </si>
-  <si>
-    <t>What is OLS methods ?</t>
-  </si>
-  <si>
-    <t>What is Gradient descent ?</t>
-  </si>
-  <si>
-    <t>What is Cost Function ?</t>
-  </si>
-  <si>
-    <t>What is F1 score ?</t>
-  </si>
-  <si>
-    <t>What is Precision ?</t>
-  </si>
-  <si>
-    <t>What is Recall ?</t>
-  </si>
-  <si>
-    <t>What is True Positive Rate or TPR?</t>
-  </si>
-  <si>
-    <t>What is True Negative Rate or TNR?</t>
-  </si>
-  <si>
-    <t>What is dependent or Target Variable ?</t>
-  </si>
-  <si>
-    <t>What is independent or Predictor Variable ?</t>
-  </si>
-  <si>
-    <t>What is train test split ?</t>
-  </si>
-  <si>
-    <t>How multicolinearity affect the model performance ?</t>
-  </si>
-  <si>
-    <t>What is Pearson's correalation coefficient ?</t>
-  </si>
-  <si>
-    <t>What is assumption of Linear Regression ?</t>
-  </si>
-  <si>
-    <t>What is Sum Of Squared Error or SSE ?</t>
-  </si>
-  <si>
-    <t>What is Regression  error or SSR?</t>
-  </si>
-  <si>
-    <t>What is Toatal error or SST ?</t>
-  </si>
-  <si>
-    <t>What is Coeeficient Of determinant ?</t>
-  </si>
-  <si>
-    <t>What is Adjusted R-square ?</t>
-  </si>
-  <si>
-    <t>What is decision Boundary ?</t>
-  </si>
-  <si>
-    <t>What is Log loss ?</t>
-  </si>
-  <si>
-    <t>What is predict proba ?</t>
-  </si>
-  <si>
-    <t>What is imbalance class problem ?</t>
-  </si>
-  <si>
-    <t>What  is Polynomial regression ?</t>
-  </si>
-  <si>
-    <t>What is Bias Variance trade off ?</t>
-  </si>
-  <si>
-    <t>What is Standadization ?</t>
-  </si>
-  <si>
-    <t>What is Normalization ?</t>
-  </si>
-  <si>
-    <t>What is Posterior probability ?</t>
-  </si>
-  <si>
-    <t>What is Predictiving modelling ?</t>
-  </si>
-  <si>
     <t>TAG</t>
   </si>
   <si>
-    <t>How specific output links to Supervised learning?</t>
-  </si>
-  <si>
-    <t>What is slope ?</t>
-  </si>
-  <si>
-    <t>What is intercept ?</t>
-  </si>
-  <si>
-    <t>What is semi supervised learning ?</t>
-  </si>
-  <si>
-    <t>What is Data split ?</t>
-  </si>
-  <si>
-    <t>What do you mean by the training of data ?</t>
-  </si>
-  <si>
-    <t>What do you mean by the testing of data ?</t>
-  </si>
-  <si>
-    <t>What is the Validation of model ?</t>
-  </si>
-  <si>
-    <t>What is Model evalution ?</t>
-  </si>
-  <si>
-    <t>What is Feature Selection ?</t>
-  </si>
-  <si>
-    <t>What is Feature scaling ?</t>
-  </si>
-  <si>
-    <t>What is Curse of Dimensionality ?</t>
-  </si>
-  <si>
     <t>AASKK43</t>
   </si>
   <si>
@@ -349,6 +184,171 @@
   </si>
   <si>
     <t>AASKK54</t>
+  </si>
+  <si>
+    <t>What is Supervised learning</t>
+  </si>
+  <si>
+    <t>What is regression</t>
+  </si>
+  <si>
+    <t>What is slope</t>
+  </si>
+  <si>
+    <t>What is intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is semi supervised learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Data split </t>
+  </si>
+  <si>
+    <t>What do you mean by the training of data</t>
+  </si>
+  <si>
+    <t>What do you mean by the testing of data</t>
+  </si>
+  <si>
+    <t>What is the Validation of model</t>
+  </si>
+  <si>
+    <t>What is Feature Selection</t>
+  </si>
+  <si>
+    <t>What is Feature scaling</t>
+  </si>
+  <si>
+    <t>What is Model evalution</t>
+  </si>
+  <si>
+    <t>What is Curse of Dimensionality</t>
+  </si>
+  <si>
+    <t>How specific output links to Supervised learning</t>
+  </si>
+  <si>
+    <t>What is confusion matrix</t>
+  </si>
+  <si>
+    <t>What is Classification</t>
+  </si>
+  <si>
+    <t>What is Linear Regression</t>
+  </si>
+  <si>
+    <t>What is Logistic Regression</t>
+  </si>
+  <si>
+    <t>What is Naïve bayes algorithm</t>
+  </si>
+  <si>
+    <t>What is euclidean distance</t>
+  </si>
+  <si>
+    <t>What is Manhattan distance</t>
+  </si>
+  <si>
+    <t>What is KNN algorithm</t>
+  </si>
+  <si>
+    <t>What is Mean Squared Error or MSE</t>
+  </si>
+  <si>
+    <t>What is Accuracy</t>
+  </si>
+  <si>
+    <t>What is ROC or AUC curve</t>
+  </si>
+  <si>
+    <t>What is OLS methods</t>
+  </si>
+  <si>
+    <t>What is Gradient descent</t>
+  </si>
+  <si>
+    <t>What is Cost Function</t>
+  </si>
+  <si>
+    <t>What is F1 score</t>
+  </si>
+  <si>
+    <t>What is Precision</t>
+  </si>
+  <si>
+    <t>What is Recall</t>
+  </si>
+  <si>
+    <t>What is True Positive Rate or TPR</t>
+  </si>
+  <si>
+    <t>What is True Negative Rate or TNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is dependent or Target Variable </t>
+  </si>
+  <si>
+    <t>What is independent or Predictor Variable</t>
+  </si>
+  <si>
+    <t>What is train test split</t>
+  </si>
+  <si>
+    <t>How multicolinearity affect the model performance</t>
+  </si>
+  <si>
+    <t>What is Pearson's correalation coefficient</t>
+  </si>
+  <si>
+    <t>What is assumption of Linear Regression</t>
+  </si>
+  <si>
+    <t>What is Sum Of Squared Error or SSE</t>
+  </si>
+  <si>
+    <t>What is Regression  error or SSR</t>
+  </si>
+  <si>
+    <t>What is Toatal error or SST</t>
+  </si>
+  <si>
+    <t>What is Coeeficient Of determinant</t>
+  </si>
+  <si>
+    <t>What is Adjusted R-square</t>
+  </si>
+  <si>
+    <t>What is decision Boundary</t>
+  </si>
+  <si>
+    <t>What is Log loss</t>
+  </si>
+  <si>
+    <t>What is predict proba</t>
+  </si>
+  <si>
+    <t>What is imbalance class problem</t>
+  </si>
+  <si>
+    <t>What  is Polynomial regression</t>
+  </si>
+  <si>
+    <t>What is Bias Variance trade off</t>
+  </si>
+  <si>
+    <t>What is Standadization</t>
+  </si>
+  <si>
+    <t>What is Normalization</t>
+  </si>
+  <si>
+    <t>What is Posterior probability</t>
+  </si>
+  <si>
+    <t>What is Predictiving modelling</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>0</v>
